--- a/recherches/xlsx/variations-possibles_03-application-pratique_01-gamme-majeure.xlsx
+++ b/recherches/xlsx/variations-possibles_03-application-pratique_01-gamme-majeure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>Objet:</t>
   </si>
@@ -197,9 +197,6 @@
     <t>De ce fait, les notions "clavier gauche", "clavier droit", "octave" et "unisson" n'ont plus d'importance à ce niveau d'étude et retranscription.</t>
   </si>
   <si>
-    <t>En applicant le rapport +12, nous obtenons :</t>
-  </si>
-  <si>
     <t>La courbe grossie en rouge correspond à l'unique variation utilisées aujourd'hui, le graphique montre clairement sa simplicité.</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Valeurs triées vue précedemment</t>
   </si>
   <si>
-    <t>Intervalles</t>
-  </si>
-  <si>
     <t>Exclu</t>
   </si>
   <si>
@@ -276,6 +270,15 @@
   </si>
   <si>
     <t>Analyse des intervalles</t>
+  </si>
+  <si>
+    <t>En combinant le tableau des combinaisons possibles avec la gamme majeure, dans un rapport +12, nous obtenons :</t>
+  </si>
+  <si>
+    <t>Formule : R = Vgamme + Vcombi * 12</t>
+  </si>
+  <si>
+    <t>Intervalles entre chaque note</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +499,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,32 +529,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +652,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$58:$I$58</c:f>
+              <c:f>Feuil1!$B$59:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -753,7 +759,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$59:$I$59</c:f>
+              <c:f>Feuil1!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -860,7 +866,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$60:$I$60</c:f>
+              <c:f>Feuil1!$B$61:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -969,7 +975,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$61:$I$61</c:f>
+              <c:f>Feuil1!$B$62:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1078,7 +1084,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$62:$I$62</c:f>
+              <c:f>Feuil1!$B$63:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1187,7 +1193,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$63:$I$63</c:f>
+              <c:f>Feuil1!$B$64:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1297,7 +1303,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$64:$I$64</c:f>
+              <c:f>Feuil1!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1407,7 +1413,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$65:$I$65</c:f>
+              <c:f>Feuil1!$B$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1460,7 +1466,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$66:$I$66</c:f>
+              <c:f>Feuil1!$B$67:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1512,7 +1518,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$67:$I$67</c:f>
+              <c:f>Feuil1!$B$68:$I$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1564,7 +1570,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$68:$I$68</c:f>
+              <c:f>Feuil1!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1616,7 +1622,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$69:$I$69</c:f>
+              <c:f>Feuil1!$B$70:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1669,7 +1675,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$70:$I$70</c:f>
+              <c:f>Feuil1!$B$71:$I$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1722,7 +1728,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$71:$I$71</c:f>
+              <c:f>Feuil1!$B$72:$I$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1775,7 +1781,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$72:$I$72</c:f>
+              <c:f>Feuil1!$B$73:$I$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1827,7 +1833,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$73:$I$73</c:f>
+              <c:f>Feuil1!$B$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1879,7 +1885,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$74:$I$74</c:f>
+              <c:f>Feuil1!$B$75:$I$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1921,11 +1927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259726688"/>
-        <c:axId val="259732288"/>
+        <c:axId val="228100832"/>
+        <c:axId val="228101392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259726688"/>
+        <c:axId val="228100832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2030,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259732288"/>
+        <c:crossAx val="228101392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259732288"/>
+        <c:axId val="228101392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2131,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259726688"/>
+        <c:crossAx val="228100832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2887,13 +2893,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2917,13 +2923,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3309,10 +3315,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH114"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF93" sqref="AF93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3325,38 +3331,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
+      <c r="B1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="3" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21"/>
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27"/>
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3433,10 +3439,10 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="11" t="s">
         <v>43</v>
       </c>
@@ -3469,19 +3475,19 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:25" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
@@ -3499,34 +3505,34 @@
       </c>
     </row>
     <row r="13" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="22" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="24"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="30"/>
     </row>
     <row r="14" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
@@ -3751,133 +3757,133 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="22" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="24"/>
-    </row>
-    <row r="18" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
+    </row>
+    <row r="18" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="29"/>
-    </row>
-    <row r="19" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="10" customFormat="1" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="10" customFormat="1" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-    </row>
-    <row r="26" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+    </row>
+    <row r="26" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>1</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0</v>
       </c>
@@ -3932,102 +3938,38 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="20" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="31"/>
-      <c r="M32" s="21" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="22"/>
+      <c r="M33" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-    </row>
-    <row r="33" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="M33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -4045,66 +3987,58 @@
     </row>
     <row r="34" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="M34" s="3">
-        <f>B$29+B34*12</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <f>C$29+C34*12</f>
-        <v>14</v>
-      </c>
-      <c r="O34" s="1">
-        <f>D$29+D34*12</f>
+      <c r="B34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="1">
-        <f>E$29+E34*12</f>
-        <v>17</v>
-      </c>
-      <c r="Q34" s="1">
-        <f>F$29+F34*12</f>
+      <c r="F34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R34" s="1">
-        <f>G$29+G34*12</f>
-        <v>21</v>
-      </c>
-      <c r="S34" s="1">
-        <f>H$29+H34*12</f>
-        <v>11</v>
-      </c>
-      <c r="T34" s="3">
-        <f>I$29+I34*12</f>
-        <v>24</v>
-      </c>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
+      <c r="I34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="M34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
@@ -4124,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
@@ -4144,42 +4078,42 @@
       <c r="I35" s="3">
         <v>1</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
       <c r="M35" s="3">
-        <f>B$29+B35*12</f>
+        <f t="shared" ref="M35:M51" si="0">B$29+B35*12</f>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f>C$29+C35*12</f>
-        <v>2</v>
+        <f t="shared" ref="N35:N51" si="1">C$29+C35*12</f>
+        <v>14</v>
       </c>
       <c r="O35" s="1">
-        <f>D$29+D35*12</f>
-        <v>16</v>
+        <f t="shared" ref="O35:O51" si="2">D$29+D35*12</f>
+        <v>4</v>
       </c>
       <c r="P35" s="1">
-        <f>E$29+E35*12</f>
+        <f t="shared" ref="P35:P51" si="3">E$29+E35*12</f>
         <v>17</v>
       </c>
       <c r="Q35" s="1">
-        <f>F$29+F35*12</f>
+        <f t="shared" ref="Q35:Q51" si="4">F$29+F35*12</f>
         <v>7</v>
       </c>
       <c r="R35" s="1">
-        <f>G$29+G35*12</f>
+        <f t="shared" ref="R35:R51" si="5">G$29+G35*12</f>
         <v>21</v>
       </c>
       <c r="S35" s="1">
-        <f>H$29+H35*12</f>
+        <f t="shared" ref="S35:S51" si="6">H$29+H35*12</f>
         <v>11</v>
       </c>
       <c r="T35" s="3">
-        <f>I$29+I35*12</f>
+        <f t="shared" ref="T35:T51" si="7">I$29+I35*12</f>
         <v>24</v>
       </c>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
@@ -4199,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
       </c>
       <c r="E36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="9">
         <v>0</v>
@@ -4219,42 +4153,42 @@
       <c r="I36" s="3">
         <v>1</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
       <c r="M36" s="3">
-        <f>B$29+B36*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <f>C$29+C36*12</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O36" s="1">
-        <f>D$29+D36*12</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="P36" s="1">
-        <f>E$29+E36*12</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="Q36" s="1">
-        <f>F$29+F36*12</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R36" s="1">
-        <f>G$29+G36*12</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="S36" s="1">
-        <f>H$29+H36*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T36" s="3">
-        <f>I$29+I36*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
@@ -4274,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9">
         <v>1</v>
@@ -4294,42 +4228,42 @@
       <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
       <c r="M37" s="3">
-        <f>B$29+B37*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f>C$29+C37*12</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O37" s="1">
-        <f>D$29+D37*12</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="P37" s="1">
-        <f>E$29+E37*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q37" s="1">
-        <f>F$29+F37*12</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R37" s="1">
-        <f>G$29+G37*12</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="S37" s="1">
-        <f>H$29+H37*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T37" s="3">
-        <f>I$29+I37*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
@@ -4349,16 +4283,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -4369,42 +4303,42 @@
       <c r="I38" s="3">
         <v>1</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
       <c r="M38" s="3">
-        <f>B$29+B38*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f>C$29+C38*12</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O38" s="1">
-        <f>D$29+D38*12</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P38" s="1">
-        <f>E$29+E38*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q38" s="1">
-        <f>F$29+F38*12</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="R38" s="1">
-        <f>G$29+G38*12</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="S38" s="1">
-        <f>H$29+H38*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T38" s="3">
-        <f>I$29+I38*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
@@ -4427,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
@@ -4444,42 +4378,42 @@
       <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
       <c r="M39" s="3">
-        <f>B$29+B39*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f>C$29+C39*12</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O39" s="1">
-        <f>D$29+D39*12</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="P39" s="1">
-        <f>E$29+E39*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q39" s="1">
-        <f>F$29+F39*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R39" s="1">
-        <f>G$29+G39*12</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="S39" s="1">
-        <f>H$29+H39*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T39" s="3">
-        <f>I$29+I39*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
@@ -4499,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="9">
         <v>1</v>
@@ -4519,42 +4453,42 @@
       <c r="I40" s="3">
         <v>1</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
       <c r="M40" s="3">
-        <f>B$29+B40*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f>C$29+C40*12</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O40" s="1">
-        <f>D$29+D40*12</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="P40" s="1">
-        <f>E$29+E40*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q40" s="1">
-        <f>F$29+F40*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R40" s="1">
-        <f>G$29+G40*12</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="S40" s="1">
-        <f>H$29+H40*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T40" s="3">
-        <f>I$29+I40*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
@@ -4574,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="C41" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="9">
         <v>1</v>
       </c>
       <c r="G41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="9">
         <v>0</v>
@@ -4594,42 +4528,42 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
       <c r="M41" s="3">
-        <f>B$29+B41*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f>C$29+C41*12</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O41" s="1">
-        <f>D$29+D41*12</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P41" s="1">
-        <f>E$29+E41*12</f>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="Q41" s="1">
-        <f>F$29+F41*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R41" s="1">
-        <f>G$29+G41*12</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="S41" s="1">
-        <f>H$29+H41*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T41" s="3">
-        <f>I$29+I41*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
@@ -4655,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="9">
         <v>1</v>
@@ -4669,42 +4603,42 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="M42" s="3">
-        <f>B$29+B42*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f>C$29+C42*12</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O42" s="1">
-        <f>D$29+D42*12</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P42" s="1">
-        <f>E$29+E42*12</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="Q42" s="1">
-        <f>F$29+F42*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R42" s="1">
-        <f>G$29+G42*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S42" s="1">
-        <f>H$29+H42*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T42" s="3">
-        <f>I$29+I42*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
@@ -4727,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
@@ -4744,42 +4678,42 @@
       <c r="I43" s="3">
         <v>1</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
       <c r="M43" s="3">
-        <f>B$29+B43*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f>C$29+C43*12</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O43" s="1">
-        <f>D$29+D43*12</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="P43" s="1">
-        <f>E$29+E43*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q43" s="1">
-        <f>F$29+F43*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R43" s="1">
-        <f>G$29+G43*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S43" s="1">
-        <f>H$29+H43*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T43" s="3">
-        <f>I$29+I43*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
@@ -4799,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="9">
         <v>1</v>
@@ -4819,42 +4753,42 @@
       <c r="I44" s="3">
         <v>1</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
       <c r="M44" s="3">
-        <f>B$29+B44*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f>C$29+C44*12</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O44" s="1">
-        <f>D$29+D44*12</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="P44" s="1">
-        <f>E$29+E44*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q44" s="1">
-        <f>F$29+F44*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R44" s="1">
-        <f>G$29+G44*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S44" s="1">
-        <f>H$29+H44*12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T44" s="3">
-        <f>I$29+I44*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
@@ -4874,62 +4808,62 @@
         <v>0</v>
       </c>
       <c r="C45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
       </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
       <c r="M45" s="3">
-        <f>B$29+B45*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f>C$29+C45*12</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O45" s="1">
-        <f>D$29+D45*12</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P45" s="1">
-        <f>E$29+E45*12</f>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="Q45" s="1">
-        <f>F$29+F45*12</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="R45" s="1">
-        <f>G$29+G45*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S45" s="1">
-        <f>H$29+H45*12</f>
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="T45" s="3">
-        <f>I$29+I45*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
@@ -4949,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
@@ -4969,42 +4903,42 @@
       <c r="I46" s="3">
         <v>1</v>
       </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
       <c r="M46" s="3">
-        <f>B$29+B46*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f>C$29+C46*12</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O46" s="1">
-        <f>D$29+D46*12</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="P46" s="1">
-        <f>E$29+E46*12</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Q46" s="1">
-        <f>F$29+F46*12</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R46" s="1">
-        <f>G$29+G46*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S46" s="1">
-        <f>H$29+H46*12</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="T46" s="3">
-        <f>I$29+I46*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
@@ -5024,16 +4958,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="9">
         <v>1</v>
       </c>
       <c r="F47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -5044,42 +4978,42 @@
       <c r="I47" s="3">
         <v>1</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
       <c r="M47" s="3">
-        <f>B$29+B47*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f>C$29+C47*12</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O47" s="1">
-        <f>D$29+D47*12</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P47" s="1">
-        <f>E$29+E47*12</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Q47" s="1">
-        <f>F$29+F47*12</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="R47" s="1">
-        <f>G$29+G47*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S47" s="1">
-        <f>H$29+H47*12</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="T47" s="3">
-        <f>I$29+I47*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
@@ -5105,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -5119,42 +5053,42 @@
       <c r="I48" s="3">
         <v>1</v>
       </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
       <c r="M48" s="3">
-        <f>B$29+B48*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <f>C$29+C48*12</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O48" s="1">
-        <f>D$29+D48*12</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P48" s="1">
-        <f>E$29+E48*12</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="Q48" s="1">
-        <f>F$29+F48*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R48" s="1">
-        <f>G$29+G48*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S48" s="1">
-        <f>H$29+H48*12</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="T48" s="3">
-        <f>I$29+I48*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
       <c r="W48" s="16"/>
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
@@ -5177,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="9">
         <v>0</v>
@@ -5194,42 +5128,42 @@
       <c r="I49" s="3">
         <v>1</v>
       </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
       <c r="M49" s="3">
-        <f>B$29+B49*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <f>C$29+C49*12</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O49" s="1">
-        <f>D$29+D49*12</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="P49" s="1">
-        <f>E$29+E49*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q49" s="1">
-        <f>F$29+F49*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R49" s="1">
-        <f>G$29+G49*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S49" s="1">
-        <f>H$29+H49*12</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="T49" s="3">
-        <f>I$29+I49*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
@@ -5249,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="9">
         <v>1</v>
@@ -5269,42 +5203,42 @@
       <c r="I50" s="3">
         <v>1</v>
       </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
       <c r="M50" s="3">
-        <f>B$29+B50*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N50" s="1">
-        <f>C$29+C50*12</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O50" s="1">
-        <f>D$29+D50*12</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="P50" s="1">
-        <f>E$29+E50*12</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q50" s="1">
-        <f>F$29+F50*12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="R50" s="1">
-        <f>G$29+G50*12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S50" s="1">
-        <f>H$29+H50*12</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="T50" s="3">
-        <f>I$29+I50*12</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
       <c r="W50" s="16"/>
       <c r="X50" s="16"/>
       <c r="Y50" s="16"/>
@@ -5318,147 +5252,190 @@
       <c r="AG50" s="16"/>
       <c r="AH50" s="16"/>
     </row>
-    <row r="51" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
+    <row r="51" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="M51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
     </row>
     <row r="52" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
     </row>
     <row r="53" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
     </row>
     <row r="54" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-    </row>
-    <row r="55" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
+      <c r="B54" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="26"/>
+    </row>
+    <row r="55" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
     </row>
     <row r="56" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
+      <c r="B56" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -5483,21 +5460,19 @@
       <c r="AE56" s="10"/>
     </row>
     <row r="57" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
+      <c r="B57" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -5519,34 +5494,22 @@
       <c r="AE57" s="10"/>
     </row>
     <row r="58" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
-      </c>
-      <c r="D58" s="1">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1">
-        <v>14</v>
-      </c>
-      <c r="G58" s="1">
-        <v>17</v>
-      </c>
-      <c r="H58" s="1">
-        <v>21</v>
-      </c>
-      <c r="I58" s="3">
-        <v>24</v>
-      </c>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="B58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -5571,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
         <v>7</v>
@@ -5580,7 +5543,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1">
         <v>17</v>
@@ -5591,10 +5554,10 @@
       <c r="I59" s="3">
         <v>24</v>
       </c>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -5619,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
         <v>7</v>
@@ -5628,10 +5591,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60" s="1">
         <v>21</v>
@@ -5639,10 +5602,10 @@
       <c r="I60" s="3">
         <v>24</v>
       </c>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -5667,16 +5630,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1">
         <v>16</v>
@@ -5687,10 +5650,10 @@
       <c r="I61" s="3">
         <v>24</v>
       </c>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -5715,19 +5678,19 @@
         <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
       <c r="E62" s="1">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1">
         <v>11</v>
       </c>
-      <c r="F62" s="1">
-        <v>14</v>
-      </c>
       <c r="G62" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H62" s="1">
         <v>21</v>
@@ -5735,10 +5698,10 @@
       <c r="I62" s="3">
         <v>24</v>
       </c>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -5763,16 +5726,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>11</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>14</v>
-      </c>
-      <c r="F63" s="1">
-        <v>16</v>
       </c>
       <c r="G63" s="1">
         <v>19</v>
@@ -5783,10 +5746,10 @@
       <c r="I63" s="3">
         <v>24</v>
       </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -5811,13 +5774,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1">
         <v>16</v>
@@ -5831,10 +5794,10 @@
       <c r="I64" s="3">
         <v>24</v>
       </c>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -5859,30 +5822,30 @@
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1">
         <v>11</v>
       </c>
       <c r="F65" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I65" s="3">
         <v>24</v>
       </c>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -5910,16 +5873,16 @@
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G66" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
@@ -5927,10 +5890,10 @@
       <c r="I66" s="3">
         <v>24</v>
       </c>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -5955,19 +5918,19 @@
         <v>0</v>
       </c>
       <c r="C67" s="1">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1">
         <v>5</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>9</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>11</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>14</v>
-      </c>
-      <c r="G67" s="1">
-        <v>16</v>
       </c>
       <c r="H67" s="1">
         <v>19</v>
@@ -5975,10 +5938,10 @@
       <c r="I67" s="3">
         <v>24</v>
       </c>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -6003,16 +5966,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1">
         <v>16</v>
@@ -6023,10 +5986,10 @@
       <c r="I68" s="3">
         <v>24</v>
       </c>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -6051,30 +6014,30 @@
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1">
         <v>9</v>
       </c>
       <c r="F69" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G69" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69" s="3">
         <v>24</v>
       </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -6099,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" s="1">
         <v>7</v>
@@ -6108,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="F70" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70" s="1">
         <v>17</v>
@@ -6119,10 +6082,10 @@
       <c r="I70" s="3">
         <v>24</v>
       </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
@@ -6147,19 +6110,19 @@
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1">
         <v>9</v>
       </c>
-      <c r="E71" s="1">
-        <v>14</v>
-      </c>
       <c r="F71" s="1">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1">
         <v>17</v>
-      </c>
-      <c r="G71" s="1">
-        <v>19</v>
       </c>
       <c r="H71" s="1">
         <v>23</v>
@@ -6167,10 +6130,10 @@
       <c r="I71" s="3">
         <v>24</v>
       </c>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -6198,13 +6161,13 @@
         <v>4</v>
       </c>
       <c r="D72" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F72" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G72" s="1">
         <v>19</v>
@@ -6215,10 +6178,10 @@
       <c r="I72" s="3">
         <v>24</v>
       </c>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -6243,16 +6206,16 @@
         <v>0</v>
       </c>
       <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>9</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>14</v>
-      </c>
-      <c r="F73" s="1">
-        <v>16</v>
       </c>
       <c r="G73" s="1">
         <v>19</v>
@@ -6263,10 +6226,10 @@
       <c r="I73" s="3">
         <v>24</v>
       </c>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -6291,13 +6254,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1">
         <v>16</v>
@@ -6311,10 +6274,10 @@
       <c r="I74" s="3">
         <v>24</v>
       </c>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -6335,18 +6298,34 @@
       <c r="AE74" s="10"/>
     </row>
     <row r="75" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1">
+        <v>19</v>
+      </c>
+      <c r="H75" s="1">
+        <v>23</v>
+      </c>
+      <c r="I75" s="3">
+        <v>24</v>
+      </c>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -6367,204 +6346,175 @@
       <c r="AE75" s="10"/>
     </row>
     <row r="76" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+    </row>
+    <row r="77" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="2:31" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="27"/>
+      <c r="D77" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-    </row>
-    <row r="81" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
+    <row r="79" spans="2:31" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="26"/>
+      <c r="X80" s="26"/>
+      <c r="Y80" s="26"/>
+    </row>
+    <row r="82" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="11" t="s">
+    </row>
+    <row r="83" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="82" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="21" t="s">
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="11" t="s">
+    </row>
+    <row r="84" spans="2:22" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="2:22" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="11" t="s">
+    </row>
+    <row r="87" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="86" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="24"/>
-      <c r="K86" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-    </row>
-    <row r="87" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13" t="s">
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
+      <c r="K87" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+    </row>
+    <row r="88" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13" t="s">
+      <c r="K88" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="T87" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-    </row>
-    <row r="88" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1">
-        <v>4</v>
-      </c>
-      <c r="D88" s="1">
-        <v>7</v>
-      </c>
-      <c r="E88" s="1">
-        <v>11</v>
-      </c>
-      <c r="F88" s="1">
-        <v>14</v>
-      </c>
-      <c r="G88" s="1">
-        <v>17</v>
-      </c>
-      <c r="H88" s="1">
-        <v>21</v>
-      </c>
-      <c r="I88" s="3">
-        <v>24</v>
-      </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="1">
-        <f t="shared" ref="L88:L104" si="0">C88-B88</f>
-        <v>4</v>
-      </c>
-      <c r="M88" s="1">
-        <f t="shared" ref="M88:M104" si="1">D88-C88</f>
-        <v>3</v>
-      </c>
-      <c r="N88" s="1">
-        <f t="shared" ref="N88:N104" si="2">E88-D88</f>
-        <v>4</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" ref="O88:O104" si="3">F88-E88</f>
-        <v>3</v>
-      </c>
-      <c r="P88" s="1">
-        <f t="shared" ref="P88:P104" si="4">G88-F88</f>
-        <v>3</v>
-      </c>
-      <c r="Q88" s="1">
-        <f t="shared" ref="Q88:Q104" si="5">H88-G88</f>
-        <v>4</v>
-      </c>
-      <c r="R88" s="1">
-        <f t="shared" ref="R88:R104" si="6">I88-H88</f>
-        <v>3</v>
-      </c>
-      <c r="S88" s="3"/>
-      <c r="T88" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="U88" s="26"/>
-      <c r="V88" s="26"/>
+      <c r="T88" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
     </row>
     <row r="89" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1">
         <v>7</v>
@@ -6573,7 +6523,7 @@
         <v>11</v>
       </c>
       <c r="F89" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G89" s="1">
         <v>17</v>
@@ -6585,47 +6535,47 @@
         <v>24</v>
       </c>
       <c r="K89" s="3"/>
-      <c r="L89" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M89" s="17">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="L89" s="1">
+        <f t="shared" ref="L89:L105" si="8">C89-B89</f>
+        <v>4</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" ref="M89:M105" si="9">D89-C89</f>
+        <v>3</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N89:N105" si="10">E89-D89</f>
         <v>4</v>
       </c>
-      <c r="O89" s="17">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="O89" s="1">
+        <f t="shared" ref="O89:O105" si="11">F89-E89</f>
+        <v>3</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="P89:P105" si="12">G89-F89</f>
+        <v>3</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Q89:Q105" si="13">H89-G89</f>
         <v>4</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R89:R105" si="14">I89-H89</f>
         <v>3</v>
       </c>
       <c r="S89" s="3"/>
-      <c r="T89" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U89" s="25"/>
-      <c r="V89" s="25"/>
+      <c r="T89" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="U89" s="34"/>
+      <c r="V89" s="34"/>
     </row>
     <row r="90" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
         <v>7</v>
@@ -6634,10 +6584,10 @@
         <v>11</v>
       </c>
       <c r="F90" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H90" s="1">
         <v>21</v>
@@ -6646,56 +6596,56 @@
         <v>24</v>
       </c>
       <c r="K90" s="3"/>
-      <c r="L90" s="17">
-        <f t="shared" si="0"/>
+      <c r="L90" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M90" s="17">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M90" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="N90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="O90" s="1">
-        <f t="shared" si="3"/>
+      <c r="O90" s="17">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="P90" s="18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q90" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="R90" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="S90" s="3"/>
-      <c r="T90" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U90" s="25"/>
-      <c r="V90" s="25"/>
+      <c r="T90" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U90" s="33"/>
+      <c r="V90" s="33"/>
     </row>
     <row r="91" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E91" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G91" s="1">
         <v>16</v>
@@ -6707,59 +6657,59 @@
         <v>24</v>
       </c>
       <c r="K91" s="3"/>
-      <c r="L91" s="18">
-        <f t="shared" si="0"/>
+      <c r="L91" s="17">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M91" s="18">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="M91" s="1">
-        <f t="shared" si="1"/>
+      <c r="N91" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N91" s="17">
-        <f t="shared" si="2"/>
+      <c r="P91" s="18">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="O91" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="P91" s="17">
-        <f t="shared" si="4"/>
+      <c r="Q91" s="1">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Q91" s="17">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="R91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="S91" s="3"/>
-      <c r="T91" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U91" s="25"/>
-      <c r="V91" s="25"/>
+      <c r="T91" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
     </row>
     <row r="92" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
         <v>5</v>
       </c>
       <c r="E92" s="1">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1">
         <v>11</v>
       </c>
-      <c r="F92" s="1">
-        <v>14</v>
-      </c>
       <c r="G92" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1">
         <v>21</v>
@@ -6768,56 +6718,56 @@
         <v>24</v>
       </c>
       <c r="K92" s="3"/>
-      <c r="L92" s="1">
-        <f t="shared" si="0"/>
+      <c r="L92" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N92" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="M92" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N92" s="19">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O92" s="1">
-        <f t="shared" si="3"/>
+      <c r="P92" s="17">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q92" s="17">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="P92" s="17">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Q92" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R92" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="S92" s="3"/>
-      <c r="T92" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U92" s="25"/>
-      <c r="V92" s="25"/>
+      <c r="T92" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
     </row>
     <row r="93" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>0</v>
       </c>
       <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
         <v>5</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>11</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>14</v>
-      </c>
-      <c r="F93" s="1">
-        <v>16</v>
       </c>
       <c r="G93" s="1">
         <v>19</v>
@@ -6829,53 +6779,53 @@
         <v>24</v>
       </c>
       <c r="K93" s="3"/>
-      <c r="L93" s="17">
-        <f t="shared" si="0"/>
+      <c r="L93" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N93" s="19">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P93" s="17">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M93" s="19">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N93" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q93" s="18">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R93" s="1">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="O93" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="P93" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Q93" s="17">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R93" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="S93" s="3"/>
-      <c r="T93" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U93" s="25"/>
-      <c r="V93" s="25"/>
+      <c r="T93" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
     </row>
     <row r="94" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>0</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1">
         <v>16</v>
@@ -6890,101 +6840,101 @@
         <v>24</v>
       </c>
       <c r="K94" s="3"/>
-      <c r="L94" s="18">
-        <f t="shared" si="0"/>
+      <c r="L94" s="17">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M94" s="19">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="O94" s="17">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M94" s="1">
-        <f t="shared" si="1"/>
+      <c r="P94" s="1">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N94" s="19">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O94" s="17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="P94" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q94" s="17">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R94" s="1">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="Q94" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R94" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="S94" s="3"/>
-      <c r="T94" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U94" s="25"/>
-      <c r="V94" s="25"/>
+      <c r="T94" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
     </row>
     <row r="95" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E95" s="1">
         <v>11</v>
       </c>
       <c r="F95" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I95" s="3">
         <v>24</v>
       </c>
       <c r="K95" s="3"/>
-      <c r="L95" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M95" s="17">
-        <f t="shared" si="1"/>
+      <c r="L95" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N95" s="19">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="O95" s="17">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N95" s="18">
-        <f t="shared" si="2"/>
+      <c r="P95" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q95" s="18">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="O95" s="1">
-        <f t="shared" si="3"/>
+      <c r="R95" s="1">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="P95" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Q95" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R95" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
       <c r="S95" s="3"/>
-      <c r="T95" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U95" s="25"/>
-      <c r="V95" s="25"/>
+      <c r="T95" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
     </row>
     <row r="96" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
@@ -6994,16 +6944,16 @@
         <v>4</v>
       </c>
       <c r="D96" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E96" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G96" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H96" s="1">
         <v>19</v>
@@ -7013,58 +6963,58 @@
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M96" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N96" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O96" s="18">
-        <f t="shared" si="3"/>
+      <c r="M96" s="17">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N96" s="18">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="O96" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="P96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Q96" s="17">
-        <f t="shared" si="5"/>
+      <c r="Q96" s="18">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R96" s="17">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="R96" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
       <c r="S96" s="3"/>
-      <c r="T96" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U96" s="25"/>
-      <c r="V96" s="25"/>
+      <c r="T96" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
     </row>
     <row r="97" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>0</v>
       </c>
       <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
         <v>5</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>9</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>11</v>
       </c>
-      <c r="F97" s="1">
+      <c r="G97" s="1">
         <v>14</v>
-      </c>
-      <c r="G97" s="1">
-        <v>16</v>
       </c>
       <c r="H97" s="1">
         <v>19</v>
@@ -7073,56 +7023,56 @@
         <v>24</v>
       </c>
       <c r="K97" s="3"/>
-      <c r="L97" s="17">
-        <f t="shared" si="0"/>
+      <c r="L97" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O97" s="18">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q97" s="17">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="M97" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N97" s="18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="P97" s="18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q97" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="R97" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="S97" s="3"/>
-      <c r="T97" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U97" s="25"/>
-      <c r="V97" s="25"/>
+      <c r="T97" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U97" s="33"/>
+      <c r="V97" s="33"/>
     </row>
     <row r="98" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E98" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G98" s="1">
         <v>16</v>
@@ -7134,108 +7084,108 @@
         <v>24</v>
       </c>
       <c r="K98" s="3"/>
-      <c r="L98" s="18">
-        <f t="shared" si="0"/>
+      <c r="L98" s="17">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N98" s="18">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M98" s="1">
-        <f t="shared" si="1"/>
+      <c r="O98" s="1">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N98" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O98" s="18">
-        <f t="shared" si="3"/>
+      <c r="P98" s="18">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="P98" s="17">
-        <f t="shared" si="4"/>
+      <c r="Q98" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="R98" s="17">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="Q98" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R98" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
       <c r="S98" s="3"/>
-      <c r="T98" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U98" s="25"/>
-      <c r="V98" s="25"/>
+      <c r="T98" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U98" s="33"/>
+      <c r="V98" s="33"/>
     </row>
     <row r="99" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E99" s="1">
         <v>9</v>
       </c>
       <c r="F99" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G99" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H99" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I99" s="3">
         <v>24</v>
       </c>
       <c r="K99" s="3"/>
-      <c r="L99" s="1">
-        <f t="shared" si="0"/>
+      <c r="L99" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="M99" s="1">
-        <f t="shared" si="1"/>
+      <c r="O99" s="18">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P99" s="17">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q99" s="1">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="N99" s="18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O99" s="17">
-        <f t="shared" si="3"/>
+      <c r="R99" s="17">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="P99" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Q99" s="19">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="R99" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="S99" s="3"/>
-      <c r="T99" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U99" s="25"/>
-      <c r="V99" s="25"/>
+      <c r="T99" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
     </row>
     <row r="100" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>0</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1">
         <v>7</v>
@@ -7244,7 +7194,7 @@
         <v>9</v>
       </c>
       <c r="F100" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G100" s="1">
         <v>17</v>
@@ -7256,59 +7206,59 @@
         <v>24</v>
       </c>
       <c r="K100" s="3"/>
-      <c r="L100" s="18">
-        <f t="shared" si="0"/>
+      <c r="L100" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N100" s="18">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M100" s="17">
-        <f t="shared" si="1"/>
+      <c r="O100" s="17">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N100" s="18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
       <c r="P100" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="Q100" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S100" s="3"/>
-      <c r="T100" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U100" s="25"/>
-      <c r="V100" s="25"/>
+      <c r="T100" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33"/>
     </row>
     <row r="101" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1">
         <v>9</v>
       </c>
-      <c r="E101" s="1">
-        <v>14</v>
-      </c>
       <c r="F101" s="1">
+        <v>16</v>
+      </c>
+      <c r="G101" s="1">
         <v>17</v>
-      </c>
-      <c r="G101" s="1">
-        <v>19</v>
       </c>
       <c r="H101" s="1">
         <v>23</v>
@@ -7317,40 +7267,40 @@
         <v>24</v>
       </c>
       <c r="K101" s="3"/>
-      <c r="L101" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="L101" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="M101" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="N101" s="17">
-        <f t="shared" si="2"/>
-        <v>5</v>
+      <c r="N101" s="18">
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="P101" s="18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q101" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="P101" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q101" s="19">
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="R101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S101" s="3"/>
-      <c r="T101" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U101" s="25"/>
-      <c r="V101" s="25"/>
+      <c r="T101" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U101" s="33"/>
+      <c r="V101" s="33"/>
     </row>
     <row r="102" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
@@ -7360,13 +7310,13 @@
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E102" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G102" s="1">
         <v>19</v>
@@ -7379,55 +7329,55 @@
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M102" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N102" s="1">
-        <f t="shared" si="2"/>
+      <c r="M102" s="17">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N102" s="17">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P102" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q102" s="1">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="O102" s="17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="P102" s="17">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Q102" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="R102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S102" s="3"/>
-      <c r="T102" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U102" s="25"/>
-      <c r="V102" s="25"/>
+      <c r="T102" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U102" s="33"/>
+      <c r="V102" s="33"/>
     </row>
     <row r="103" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>0</v>
       </c>
       <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1">
         <v>5</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>9</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>14</v>
-      </c>
-      <c r="F103" s="1">
-        <v>16</v>
       </c>
       <c r="G103" s="1">
         <v>19</v>
@@ -7439,53 +7389,53 @@
         <v>24</v>
       </c>
       <c r="K103" s="3"/>
-      <c r="L103" s="17">
-        <f t="shared" si="0"/>
+      <c r="L103" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O103" s="17">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="M103" s="1">
-        <f t="shared" si="1"/>
+      <c r="P103" s="17">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q103" s="1">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="N103" s="17">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O103" s="18">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="P103" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Q103" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="R103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S103" s="3"/>
-      <c r="T103" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U103" s="25"/>
-      <c r="V103" s="25"/>
+      <c r="T103" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U103" s="33"/>
+      <c r="V103" s="33"/>
     </row>
     <row r="104" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E104" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1">
         <v>16</v>
@@ -7500,197 +7450,258 @@
         <v>24</v>
       </c>
       <c r="K104" s="3"/>
-      <c r="L104" s="18">
-        <f t="shared" si="0"/>
+      <c r="L104" s="17">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N104" s="17">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O104" s="18">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M104" s="1">
-        <f t="shared" si="1"/>
+      <c r="P104" s="1">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N104" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q104" s="1">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="O104" s="1">
-        <f t="shared" si="3"/>
+      <c r="R104" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S104" s="3"/>
+      <c r="T104" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U104" s="33"/>
+      <c r="V104" s="33"/>
+    </row>
+    <row r="105" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
+        <v>16</v>
+      </c>
+      <c r="G105" s="1">
+        <v>19</v>
+      </c>
+      <c r="H105" s="1">
+        <v>23</v>
+      </c>
+      <c r="I105" s="3">
+        <v>24</v>
+      </c>
+      <c r="K105" s="3"/>
+      <c r="L105" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="P104" s="1">
-        <f t="shared" si="4"/>
+      <c r="P105" s="1">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Q104" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q105" s="1">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="R104" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S104" s="3"/>
-      <c r="T104" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U104" s="25"/>
-      <c r="V104" s="25"/>
-    </row>
-    <row r="106" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="11" t="s">
+      <c r="R105" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S105" s="3"/>
+      <c r="T105" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U105" s="33"/>
+      <c r="V105" s="33"/>
+    </row>
+    <row r="107" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="11" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F109" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="110" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="27"/>
+      <c r="D113" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="11" t="s">
+    <row r="114" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="4:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="11" t="s">
-        <v>78</v>
+    <row r="115" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="V50:AC50">
-    <sortCondition ref="V50:AC50"/>
+  <sortState columnSort="1" ref="V51:AC51">
+    <sortCondition ref="V51:AC51"/>
   </sortState>
   <mergeCells count="95">
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="B53:Y53"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="M32:T32"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="B25:Y25"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="P13:Y13"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="N17:Y17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="T89:V89"/>
-    <mergeCell ref="T90:V90"/>
-    <mergeCell ref="T91:V91"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="K86:S86"/>
-    <mergeCell ref="T87:V87"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="T100:V100"/>
-    <mergeCell ref="T101:V101"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="T94:V94"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="T96:V96"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="T98:V98"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B57:I57"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B79:Y79"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B80:Y80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B85:D85"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="T100:V100"/>
+    <mergeCell ref="T101:V101"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="K87:S87"/>
+    <mergeCell ref="T88:V88"/>
+    <mergeCell ref="T89:V89"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="T96:V96"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="T98:V98"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="T90:V90"/>
+    <mergeCell ref="T91:V91"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="T93:V93"/>
+    <mergeCell ref="T94:V94"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
     <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J67:K67"/>
     <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J75:K75"/>
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="N17:Y17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B54:Y54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B25:Y25"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="P13:Y13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="24" max="16383" man="1"/>
-    <brk id="52" max="16383" man="1"/>
-    <brk id="78" max="16383" man="1"/>
+    <brk id="53" max="16383" man="1"/>
+    <brk id="79" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="1048575" man="1"/>
@@ -7710,9 +7721,177 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Feuil1!B34:I34</xm:f>
-              <xm:sqref>J34</xm:sqref>
+              <xm:f>Feuil1!B59:I59</xm:f>
+              <xm:sqref>J59</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B60:I60</xm:f>
+              <xm:sqref>J60</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B61:I61</xm:f>
+              <xm:sqref>J61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B62:I62</xm:f>
+              <xm:sqref>J62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B63:I63</xm:f>
+              <xm:sqref>J63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B64:I64</xm:f>
+              <xm:sqref>J64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B65:I65</xm:f>
+              <xm:sqref>J65</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B66:I66</xm:f>
+              <xm:sqref>J66</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B67:I67</xm:f>
+              <xm:sqref>J67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B68:I68</xm:f>
+              <xm:sqref>J68</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B69:I69</xm:f>
+              <xm:sqref>J69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B70:I70</xm:f>
+              <xm:sqref>J70</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B71:I71</xm:f>
+              <xm:sqref>J71</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B72:I72</xm:f>
+              <xm:sqref>J72</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B73:I73</xm:f>
+              <xm:sqref>J73</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B74:I74</xm:f>
+              <xm:sqref>J74</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B75:I75</xm:f>
+              <xm:sqref>J75</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Feuil1!M35:T35</xm:f>
+              <xm:sqref>U35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M36:T36</xm:f>
+              <xm:sqref>U36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M37:T37</xm:f>
+              <xm:sqref>U37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M38:T38</xm:f>
+              <xm:sqref>U38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M39:T39</xm:f>
+              <xm:sqref>U39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M40:T40</xm:f>
+              <xm:sqref>U40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M41:T41</xm:f>
+              <xm:sqref>U41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M42:T42</xm:f>
+              <xm:sqref>U42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M43:T43</xm:f>
+              <xm:sqref>U43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M44:T44</xm:f>
+              <xm:sqref>U44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M45:T45</xm:f>
+              <xm:sqref>U45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M46:T46</xm:f>
+              <xm:sqref>U46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M47:T47</xm:f>
+              <xm:sqref>U47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M48:T48</xm:f>
+              <xm:sqref>U48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M49:T49</xm:f>
+              <xm:sqref>U49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M50:T50</xm:f>
+              <xm:sqref>U50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M51:T51</xm:f>
+              <xm:sqref>U51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M52:T52</xm:f>
+              <xm:sqref>U52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M53:T53</xm:f>
+              <xm:sqref>U53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!M55:T55</xm:f>
+              <xm:sqref>U55</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
             <x14:sparkline>
               <xm:f>Feuil1!B35:I35</xm:f>
               <xm:sqref>J35</xm:sqref>
@@ -7786,180 +7965,12 @@
               <xm:sqref>J52</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B54:I54</xm:f>
-              <xm:sqref>J54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Feuil1!M34:T34</xm:f>
-              <xm:sqref>U34</xm:sqref>
+              <xm:f>Feuil1!B53:I53</xm:f>
+              <xm:sqref>J53</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!M35:T35</xm:f>
-              <xm:sqref>U35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M36:T36</xm:f>
-              <xm:sqref>U36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M37:T37</xm:f>
-              <xm:sqref>U37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M38:T38</xm:f>
-              <xm:sqref>U38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M39:T39</xm:f>
-              <xm:sqref>U39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M40:T40</xm:f>
-              <xm:sqref>U40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M41:T41</xm:f>
-              <xm:sqref>U41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M42:T42</xm:f>
-              <xm:sqref>U42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M43:T43</xm:f>
-              <xm:sqref>U43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M44:T44</xm:f>
-              <xm:sqref>U44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M45:T45</xm:f>
-              <xm:sqref>U45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M46:T46</xm:f>
-              <xm:sqref>U46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M47:T47</xm:f>
-              <xm:sqref>U47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M48:T48</xm:f>
-              <xm:sqref>U48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M49:T49</xm:f>
-              <xm:sqref>U49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M50:T50</xm:f>
-              <xm:sqref>U50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M51:T51</xm:f>
-              <xm:sqref>U51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M52:T52</xm:f>
-              <xm:sqref>U52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!M54:T54</xm:f>
-              <xm:sqref>U54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Feuil1!B58:I58</xm:f>
-              <xm:sqref>J58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B59:I59</xm:f>
-              <xm:sqref>J59</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B60:I60</xm:f>
-              <xm:sqref>J60</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B61:I61</xm:f>
-              <xm:sqref>J61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B62:I62</xm:f>
-              <xm:sqref>J62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B63:I63</xm:f>
-              <xm:sqref>J63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B64:I64</xm:f>
-              <xm:sqref>J64</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B65:I65</xm:f>
-              <xm:sqref>J65</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B66:I66</xm:f>
-              <xm:sqref>J66</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B67:I67</xm:f>
-              <xm:sqref>J67</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B68:I68</xm:f>
-              <xm:sqref>J68</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B69:I69</xm:f>
-              <xm:sqref>J69</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B70:I70</xm:f>
-              <xm:sqref>J70</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B71:I71</xm:f>
-              <xm:sqref>J71</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B72:I72</xm:f>
-              <xm:sqref>J72</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B73:I73</xm:f>
-              <xm:sqref>J73</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B74:I74</xm:f>
-              <xm:sqref>J74</xm:sqref>
+              <xm:f>Feuil1!B55:I55</xm:f>
+              <xm:sqref>J55</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/recherches/xlsx/variations-possibles_03-application-pratique_01-gamme-majeure.xlsx
+++ b/recherches/xlsx/variations-possibles_03-application-pratique_01-gamme-majeure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Objet:</t>
   </si>
@@ -200,61 +200,13 @@
     <t>La courbe grossie en rouge correspond à l'unique variation utilisées aujourd'hui, le graphique montre clairement sa simplicité.</t>
   </si>
   <si>
-    <t>Objectif:</t>
-  </si>
-  <si>
-    <t>Réduire la liste des variations possibles pour ne garder que les plus intéressantes.</t>
-  </si>
-  <si>
-    <t>Problématique:</t>
-  </si>
-  <si>
-    <t>Comment définir procéduralement si une variation est intéressante…</t>
-  </si>
-  <si>
-    <t>Première piste:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclure les variations contenant des intervalles/écarts de 2, 5 et 6, qui seront fondamentalement plus simples à jouer sur l'autre clavier. </t>
-  </si>
-  <si>
     <t>Valeurs triées vue précedemment</t>
-  </si>
-  <si>
-    <t>Exclu</t>
-  </si>
-  <si>
-    <t>Validé</t>
-  </si>
-  <si>
-    <t>Résultat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le résultat est radical : Une seule variation est retenue, celle que l'on utilise habituellement. </t>
-  </si>
-  <si>
-    <t>Questions soulevées :</t>
-  </si>
-  <si>
-    <t>Est-il nécessaire de vérifier les 17 variations possibles, trouvées précedemment ?</t>
-  </si>
-  <si>
-    <t>Est-il certain que toutes les gammes répondent à un résultat dans ces conditions ?</t>
-  </si>
-  <si>
-    <t>Est-il sûr qu'on ne passera pas à côté d'une variation intéressante ?</t>
   </si>
   <si>
     <t>Observation :</t>
   </si>
   <si>
     <t>La gamme Majeure fait partit de ces gammes qui présentent un chemin simple et continu dans le principe dualo.</t>
-  </si>
-  <si>
-    <t>Pour vérifier cela, nous allons répéter la même opération sur la gamme Japonaise, dans le document suivant.</t>
-  </si>
-  <si>
-    <t>Il existe cependant des gammes plus facile à jouer lorsqu'elles présentent des discontinuités, telles que la gamme de blues, ou encore la gamme Japonaise.</t>
   </si>
   <si>
     <t>Il suffit maintenant de trier les valeurs pour étudier le chemin parcouru d'une volée sur un seul clavier :</t>
@@ -279,6 +231,24 @@
   </si>
   <si>
     <t>Intervalles entre chaque note</t>
+  </si>
+  <si>
+    <t>Il faudra donc répéter l'opération sur plusieurs autres gammes, pour vérifier si une piste se dévoile dans ce test.</t>
+  </si>
+  <si>
+    <t>Le premier résultat se distingue des autres, une fois encore, par sa simplicité. Il n'y a pas d'autre suite qui présente une répartition régulière.</t>
+  </si>
+  <si>
+    <t>Nous pourions conclure que les intervalles 3 et 4, correspondant aux tierces mineures et majeures, fondement du principe dualo, seraient la</t>
+  </si>
+  <si>
+    <t>clé d'un bon dessin de gamme, cependant… C'est loin d'être aussi simple.</t>
+  </si>
+  <si>
+    <t>Il existe cependant des gammes plus facile à jouer lorsqu'elles présentent des discontinuités, telles que la gamme Japonaise, ou d'Iwato.</t>
+  </si>
+  <si>
+    <t>Bref, il est impossible de tirer des conclusions sur une gamme aussi caractéristique que la gamme Majeure…</t>
   </si>
 </sst>
 </file>
@@ -333,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,36 +318,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -437,11 +383,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,13 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,10 +525,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,16 +546,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,11 +1968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="228100832"/>
-        <c:axId val="228101392"/>
+        <c:axId val="306527440"/>
+        <c:axId val="306528000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228100832"/>
+        <c:axId val="306527440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2071,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228101392"/>
+        <c:crossAx val="306528000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228101392"/>
+        <c:axId val="306528000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2172,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228100832"/>
+        <c:crossAx val="306527440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3315,10 +3356,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH115"/>
+  <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF93" sqref="AF93"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD104" sqref="AD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3331,38 +3372,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
+      <c r="B1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
     </row>
     <row r="3" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27"/>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3439,10 +3480,10 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="11" t="s">
         <v>43</v>
       </c>
@@ -3475,19 +3516,19 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:25" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
@@ -3800,10 +3841,10 @@
       <c r="O18" s="32"/>
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
@@ -3818,13 +3859,13 @@
     <row r="21" spans="1:25" s="10" customFormat="1" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -3846,32 +3887,32 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
@@ -3941,35 +3982,35 @@
     <row r="30" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" s="20" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="18" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:34" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="22"/>
-      <c r="M33" s="27" t="s">
+      <c r="K33" s="20"/>
+      <c r="M33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -4078,8 +4119,8 @@
       <c r="I35" s="3">
         <v>1</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
       <c r="M35" s="3">
         <f t="shared" ref="M35:M51" si="0">B$29+B35*12</f>
         <v>0</v>
@@ -4112,8 +4153,8 @@
         <f t="shared" ref="T35:T51" si="7">I$29+I35*12</f>
         <v>24</v>
       </c>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
@@ -4153,8 +4194,8 @@
       <c r="I36" s="3">
         <v>1</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
       <c r="M36" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4187,8 +4228,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
@@ -4228,8 +4269,8 @@
       <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
       <c r="M37" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4262,8 +4303,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
@@ -4303,8 +4344,8 @@
       <c r="I38" s="3">
         <v>1</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
       <c r="M38" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4337,8 +4378,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
@@ -4378,8 +4419,8 @@
       <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
       <c r="M39" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4412,8 +4453,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
@@ -4453,8 +4494,8 @@
       <c r="I40" s="3">
         <v>1</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
       <c r="M40" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4487,8 +4528,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
@@ -4528,8 +4569,8 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
       <c r="M41" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4562,8 +4603,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
@@ -4603,8 +4644,8 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="M42" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4637,8 +4678,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
@@ -4678,8 +4719,8 @@
       <c r="I43" s="3">
         <v>1</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
       <c r="M43" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4712,8 +4753,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
@@ -4753,8 +4794,8 @@
       <c r="I44" s="3">
         <v>1</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
       <c r="M44" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4787,8 +4828,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
@@ -4828,8 +4869,8 @@
       <c r="I45" s="3">
         <v>1</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
       <c r="M45" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4862,8 +4903,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
@@ -4903,8 +4944,8 @@
       <c r="I46" s="3">
         <v>1</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
       <c r="M46" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4937,8 +4978,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
@@ -4978,8 +5019,8 @@
       <c r="I47" s="3">
         <v>1</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
       <c r="M47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5012,8 +5053,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
@@ -5053,8 +5094,8 @@
       <c r="I48" s="3">
         <v>1</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
       <c r="M48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5087,8 +5128,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
       <c r="W48" s="16"/>
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
@@ -5128,8 +5169,8 @@
       <c r="I49" s="3">
         <v>1</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
       <c r="M49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5162,8 +5203,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
@@ -5203,8 +5244,8 @@
       <c r="I50" s="3">
         <v>1</v>
       </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5237,8 +5278,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
       <c r="W50" s="16"/>
       <c r="X50" s="16"/>
       <c r="Y50" s="16"/>
@@ -5278,8 +5319,8 @@
       <c r="I51" s="3">
         <v>1</v>
       </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5312,8 +5353,8 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
@@ -5328,106 +5369,106 @@
       <c r="AH51" s="16"/>
     </row>
     <row r="52" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
     </row>
     <row r="53" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
     </row>
     <row r="54" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
+      <c r="B54" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
     </row>
     <row r="55" spans="1:34" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
     </row>
     <row r="56" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="24" t="s">
-        <v>78</v>
+      <c r="B56" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -5460,16 +5501,16 @@
       <c r="AE56" s="10"/>
     </row>
     <row r="57" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
+      <c r="B57" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -5554,10 +5595,10 @@
       <c r="I59" s="3">
         <v>24</v>
       </c>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -5602,10 +5643,10 @@
       <c r="I60" s="3">
         <v>24</v>
       </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -5650,10 +5691,10 @@
       <c r="I61" s="3">
         <v>24</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -5698,10 +5739,10 @@
       <c r="I62" s="3">
         <v>24</v>
       </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -5746,10 +5787,10 @@
       <c r="I63" s="3">
         <v>24</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -5794,10 +5835,10 @@
       <c r="I64" s="3">
         <v>24</v>
       </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -5842,10 +5883,10 @@
       <c r="I65" s="3">
         <v>24</v>
       </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -5890,10 +5931,10 @@
       <c r="I66" s="3">
         <v>24</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -5938,10 +5979,10 @@
       <c r="I67" s="3">
         <v>24</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -5986,10 +6027,10 @@
       <c r="I68" s="3">
         <v>24</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -6034,10 +6075,10 @@
       <c r="I69" s="3">
         <v>24</v>
       </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -6082,10 +6123,10 @@
       <c r="I70" s="3">
         <v>24</v>
       </c>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
@@ -6130,10 +6171,10 @@
       <c r="I71" s="3">
         <v>24</v>
       </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -6178,10 +6219,10 @@
       <c r="I72" s="3">
         <v>24</v>
       </c>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -6226,10 +6267,10 @@
       <c r="I73" s="3">
         <v>24</v>
       </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -6274,10 +6315,10 @@
       <c r="I74" s="3">
         <v>24</v>
       </c>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -6322,10 +6363,10 @@
       <c r="I75" s="3">
         <v>24</v>
       </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -6378,10 +6419,10 @@
       <c r="AE76" s="10"/>
     </row>
     <row r="77" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="27"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="11" t="s">
         <v>58</v>
       </c>
@@ -6397,136 +6438,399 @@
       <c r="D79" s="11"/>
     </row>
     <row r="80" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
-      <c r="T80" s="26"/>
-      <c r="U80" s="26"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="26"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="26"/>
+      <c r="B80" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
     </row>
     <row r="82" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="2:22" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="30"/>
+      <c r="K82" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+    </row>
+    <row r="83" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+    </row>
+    <row r="84" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1">
+        <v>14</v>
+      </c>
+      <c r="G84" s="1">
+        <v>17</v>
+      </c>
+      <c r="H84" s="1">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3">
+        <v>24</v>
+      </c>
+      <c r="K84" s="33"/>
+      <c r="L84" s="40">
+        <f t="shared" ref="L84:L100" si="8">C84-B84</f>
+        <v>4</v>
+      </c>
+      <c r="M84" s="41">
+        <f t="shared" ref="M84:M100" si="9">D84-C84</f>
+        <v>3</v>
+      </c>
+      <c r="N84" s="41">
+        <f t="shared" ref="N84:N100" si="10">E84-D84</f>
+        <v>4</v>
+      </c>
+      <c r="O84" s="41">
+        <f t="shared" ref="O84:O100" si="11">F84-E84</f>
+        <v>3</v>
+      </c>
+      <c r="P84" s="41">
+        <f t="shared" ref="P84:P100" si="12">G84-F84</f>
+        <v>3</v>
+      </c>
+      <c r="Q84" s="41">
+        <f t="shared" ref="Q84:Q100" si="13">H84-G84</f>
+        <v>4</v>
+      </c>
+      <c r="R84" s="42">
+        <f t="shared" ref="R84:R100" si="14">I84-H84</f>
+        <v>3</v>
+      </c>
+      <c r="S84" s="37"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+    </row>
     <row r="85" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1">
+        <v>16</v>
+      </c>
+      <c r="G85" s="1">
+        <v>17</v>
+      </c>
+      <c r="H85" s="1">
+        <v>21</v>
+      </c>
+      <c r="I85" s="3">
+        <v>24</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="39">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M85" s="39">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N85" s="39">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O85" s="39">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P85" s="39">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q85" s="39">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="R85" s="39">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S85" s="3"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+    </row>
+    <row r="86" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1">
+        <v>16</v>
+      </c>
+      <c r="H86" s="1">
+        <v>21</v>
+      </c>
+      <c r="I86" s="3">
+        <v>24</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M86" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N86" s="9">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O86" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P86" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q86" s="9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="R86" s="9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S86" s="3"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
     </row>
     <row r="87" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="30"/>
-      <c r="K87" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1">
+        <v>16</v>
+      </c>
+      <c r="H87" s="1">
+        <v>21</v>
+      </c>
+      <c r="I87" s="3">
+        <v>24</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M87" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N87" s="9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O87" s="9">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="P87" s="9">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q87" s="9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="R87" s="9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S87" s="3"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
     </row>
     <row r="88" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T88" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>11</v>
+      </c>
+      <c r="F88" s="1">
+        <v>14</v>
+      </c>
+      <c r="G88" s="1">
+        <v>19</v>
+      </c>
+      <c r="H88" s="1">
+        <v>21</v>
+      </c>
+      <c r="I88" s="3">
+        <v>24</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M88" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N88" s="9">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="O88" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P88" s="9">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q88" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R88" s="9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S88" s="3"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
     </row>
     <row r="89" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" s="1">
         <v>21</v>
@@ -6535,40 +6839,38 @@
         <v>24</v>
       </c>
       <c r="K89" s="3"/>
-      <c r="L89" s="1">
-        <f t="shared" ref="L89:L105" si="8">C89-B89</f>
-        <v>4</v>
-      </c>
-      <c r="M89" s="1">
-        <f t="shared" ref="M89:M105" si="9">D89-C89</f>
+      <c r="L89" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M89" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N89" s="9">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="N89" s="1">
-        <f t="shared" ref="N89:N105" si="10">E89-D89</f>
-        <v>4</v>
-      </c>
-      <c r="O89" s="1">
-        <f t="shared" ref="O89:O105" si="11">F89-E89</f>
+      <c r="O89" s="9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P89" s="9">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="P89" s="1">
-        <f t="shared" ref="P89:P105" si="12">G89-F89</f>
+      <c r="Q89" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R89" s="9">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="Q89" s="1">
-        <f t="shared" ref="Q89:Q105" si="13">H89-G89</f>
-        <v>4</v>
-      </c>
-      <c r="R89" s="1">
-        <f t="shared" ref="R89:R105" si="14">I89-H89</f>
-        <v>3</v>
-      </c>
       <c r="S89" s="3"/>
-      <c r="T89" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="U89" s="34"/>
-      <c r="V89" s="34"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
     </row>
     <row r="90" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
@@ -6578,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E90" s="1">
         <v>11</v>
@@ -6587,7 +6889,7 @@
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" s="1">
         <v>21</v>
@@ -6596,1048 +6898,722 @@
         <v>24</v>
       </c>
       <c r="K90" s="3"/>
-      <c r="L90" s="18">
+      <c r="L90" s="9">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N90" s="9">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="O90" s="9">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P90" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q90" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R90" s="9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S90" s="3"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+    </row>
+    <row r="91" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1">
+        <v>17</v>
+      </c>
+      <c r="H91" s="1">
+        <v>19</v>
+      </c>
+      <c r="I91" s="3">
+        <v>24</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M91" s="9">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="N90" s="1">
+      <c r="N91" s="9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O91" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P91" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q91" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R91" s="9">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="S91" s="3"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+    </row>
+    <row r="92" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>9</v>
+      </c>
+      <c r="F92" s="1">
+        <v>11</v>
+      </c>
+      <c r="G92" s="1">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1">
+        <v>19</v>
+      </c>
+      <c r="I92" s="3">
+        <v>24</v>
+      </c>
+      <c r="K92" s="3"/>
+      <c r="L92" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M92" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N92" s="9">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O92" s="9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P92" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q92" s="9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="R92" s="9">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="S92" s="3"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+    </row>
+    <row r="93" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1">
+        <v>16</v>
+      </c>
+      <c r="H93" s="1">
+        <v>19</v>
+      </c>
+      <c r="I93" s="3">
+        <v>24</v>
+      </c>
+      <c r="K93" s="3"/>
+      <c r="L93" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M93" s="9">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N93" s="9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O93" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P93" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q93" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="R93" s="9">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="S93" s="3"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+    </row>
+    <row r="94" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>9</v>
+      </c>
+      <c r="F94" s="1">
+        <v>11</v>
+      </c>
+      <c r="G94" s="1">
+        <v>16</v>
+      </c>
+      <c r="H94" s="1">
+        <v>19</v>
+      </c>
+      <c r="I94" s="3">
+        <v>24</v>
+      </c>
+      <c r="K94" s="3"/>
+      <c r="L94" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M94" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N94" s="9">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O94" s="9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P94" s="9">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q94" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="R94" s="9">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="S94" s="3"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+    </row>
+    <row r="95" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9</v>
+      </c>
+      <c r="F95" s="1">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1">
+        <v>17</v>
+      </c>
+      <c r="H95" s="1">
+        <v>23</v>
+      </c>
+      <c r="I95" s="3">
+        <v>24</v>
+      </c>
+      <c r="K95" s="3"/>
+      <c r="L95" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M95" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N95" s="9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O95" s="9">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="P90" s="1">
+      <c r="P95" s="9">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q90" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="9">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="R95" s="9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S95" s="3"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="36"/>
+      <c r="V95" s="36"/>
+    </row>
+    <row r="96" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>9</v>
+      </c>
+      <c r="F96" s="1">
+        <v>16</v>
+      </c>
+      <c r="G96" s="1">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1">
+        <v>23</v>
+      </c>
+      <c r="I96" s="3">
+        <v>24</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M96" s="9">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N96" s="9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O96" s="9">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="P96" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q96" s="9">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="R96" s="9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S96" s="3"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+    </row>
+    <row r="97" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1">
+        <v>17</v>
+      </c>
+      <c r="G97" s="1">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1">
+        <v>23</v>
+      </c>
+      <c r="I97" s="3">
+        <v>24</v>
+      </c>
+      <c r="K97" s="3"/>
+      <c r="L97" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M97" s="9">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N97" s="9">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O97" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P97" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q97" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="R90" s="1">
+      <c r="R97" s="9">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="S90" s="3"/>
-      <c r="T90" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U90" s="33"/>
-      <c r="V90" s="33"/>
-    </row>
-    <row r="91" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="3">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="S97" s="3"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="36"/>
+    </row>
+    <row r="98" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
         <v>5</v>
       </c>
-      <c r="D91" s="1">
-        <v>7</v>
-      </c>
-      <c r="E91" s="1">
-        <v>11</v>
-      </c>
-      <c r="F91" s="1">
+      <c r="E98" s="1">
+        <v>9</v>
+      </c>
+      <c r="F98" s="1">
         <v>14</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G98" s="1">
+        <v>19</v>
+      </c>
+      <c r="H98" s="1">
+        <v>23</v>
+      </c>
+      <c r="I98" s="3">
+        <v>24</v>
+      </c>
+      <c r="K98" s="3"/>
+      <c r="L98" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M98" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N98" s="9">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O98" s="9">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P98" s="9">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q98" s="9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="R98" s="9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S98" s="3"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+    </row>
+    <row r="99" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1">
         <v>16</v>
       </c>
-      <c r="H91" s="1">
-        <v>21</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="G99" s="1">
+        <v>19</v>
+      </c>
+      <c r="H99" s="1">
+        <v>23</v>
+      </c>
+      <c r="I99" s="3">
         <v>24</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="17">
+      <c r="K99" s="3"/>
+      <c r="L99" s="9">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M99" s="9">
         <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N99" s="9">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O99" s="9">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N91" s="1">
+      <c r="P99" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q99" s="9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="R99" s="9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S99" s="3"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+    </row>
+    <row r="100" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>9</v>
+      </c>
+      <c r="F100" s="1">
+        <v>16</v>
+      </c>
+      <c r="G100" s="1">
+        <v>19</v>
+      </c>
+      <c r="H100" s="1">
+        <v>23</v>
+      </c>
+      <c r="I100" s="3">
+        <v>24</v>
+      </c>
+      <c r="K100" s="3"/>
+      <c r="L100" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M100" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N100" s="9">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O100" s="9">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="P91" s="18">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Q91" s="1">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="R91" s="1">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="S91" s="3"/>
-      <c r="T91" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-    </row>
-    <row r="92" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="3">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
-        <v>2</v>
-      </c>
-      <c r="D92" s="1">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1">
         <v>7</v>
       </c>
-      <c r="F92" s="1">
-        <v>11</v>
-      </c>
-      <c r="G92" s="1">
-        <v>16</v>
-      </c>
-      <c r="H92" s="1">
-        <v>21</v>
-      </c>
-      <c r="I92" s="3">
-        <v>24</v>
-      </c>
-      <c r="K92" s="3"/>
-      <c r="L92" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M92" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N92" s="17">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="O92" s="1">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="P92" s="17">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="Q92" s="17">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="R92" s="1">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="S92" s="3"/>
-      <c r="T92" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U92" s="33"/>
-      <c r="V92" s="33"/>
-    </row>
-    <row r="93" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>4</v>
-      </c>
-      <c r="D93" s="1">
-        <v>5</v>
-      </c>
-      <c r="E93" s="1">
-        <v>11</v>
-      </c>
-      <c r="F93" s="1">
-        <v>14</v>
-      </c>
-      <c r="G93" s="1">
-        <v>19</v>
-      </c>
-      <c r="H93" s="1">
-        <v>21</v>
-      </c>
-      <c r="I93" s="3">
-        <v>24</v>
-      </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M93" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N93" s="19">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O93" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="P93" s="17">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="Q93" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="R93" s="1">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="S93" s="3"/>
-      <c r="T93" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U93" s="33"/>
-      <c r="V93" s="33"/>
-    </row>
-    <row r="94" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
-        <v>5</v>
-      </c>
-      <c r="D94" s="1">
-        <v>11</v>
-      </c>
-      <c r="E94" s="1">
-        <v>14</v>
-      </c>
-      <c r="F94" s="1">
-        <v>16</v>
-      </c>
-      <c r="G94" s="1">
-        <v>19</v>
-      </c>
-      <c r="H94" s="1">
-        <v>21</v>
-      </c>
-      <c r="I94" s="3">
-        <v>24</v>
-      </c>
-      <c r="K94" s="3"/>
-      <c r="L94" s="17">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M94" s="19">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="N94" s="1">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O94" s="17">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="P94" s="1">
+      <c r="P100" s="9">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Q94" s="17">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="R94" s="1">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="S94" s="3"/>
-      <c r="T94" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U94" s="33"/>
-      <c r="V94" s="33"/>
-    </row>
-    <row r="95" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="3">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1">
-        <v>11</v>
-      </c>
-      <c r="F95" s="1">
-        <v>16</v>
-      </c>
-      <c r="G95" s="1">
-        <v>19</v>
-      </c>
-      <c r="H95" s="1">
-        <v>21</v>
-      </c>
-      <c r="I95" s="3">
-        <v>24</v>
-      </c>
-      <c r="K95" s="3"/>
-      <c r="L95" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M95" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N95" s="19">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O95" s="17">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="P95" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Q95" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="R95" s="1">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="S95" s="3"/>
-      <c r="T95" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U95" s="33"/>
-      <c r="V95" s="33"/>
-    </row>
-    <row r="96" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="3">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1">
-        <v>4</v>
-      </c>
-      <c r="D96" s="1">
-        <v>9</v>
-      </c>
-      <c r="E96" s="1">
-        <v>11</v>
-      </c>
-      <c r="F96" s="1">
-        <v>14</v>
-      </c>
-      <c r="G96" s="1">
-        <v>17</v>
-      </c>
-      <c r="H96" s="1">
-        <v>19</v>
-      </c>
-      <c r="I96" s="3">
-        <v>24</v>
-      </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M96" s="17">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N96" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="O96" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="P96" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Q96" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="R96" s="17">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="S96" s="3"/>
-      <c r="T96" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U96" s="33"/>
-      <c r="V96" s="33"/>
-    </row>
-    <row r="97" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>9</v>
-      </c>
-      <c r="F97" s="1">
-        <v>11</v>
-      </c>
-      <c r="G97" s="1">
-        <v>14</v>
-      </c>
-      <c r="H97" s="1">
-        <v>19</v>
-      </c>
-      <c r="I97" s="3">
-        <v>24</v>
-      </c>
-      <c r="K97" s="3"/>
-      <c r="L97" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N97" s="1">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="O97" s="18">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="P97" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Q97" s="17">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="R97" s="17">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="S97" s="3"/>
-      <c r="T97" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U97" s="33"/>
-      <c r="V97" s="33"/>
-    </row>
-    <row r="98" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>5</v>
-      </c>
-      <c r="D98" s="1">
-        <v>9</v>
-      </c>
-      <c r="E98" s="1">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1">
-        <v>14</v>
-      </c>
-      <c r="G98" s="1">
-        <v>16</v>
-      </c>
-      <c r="H98" s="1">
-        <v>19</v>
-      </c>
-      <c r="I98" s="3">
-        <v>24</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="17">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M98" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N98" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="O98" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="P98" s="18">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Q98" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="R98" s="17">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="S98" s="3"/>
-      <c r="T98" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U98" s="33"/>
-      <c r="V98" s="33"/>
-    </row>
-    <row r="99" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="3">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1">
-        <v>5</v>
-      </c>
-      <c r="E99" s="1">
-        <v>9</v>
-      </c>
-      <c r="F99" s="1">
-        <v>11</v>
-      </c>
-      <c r="G99" s="1">
-        <v>16</v>
-      </c>
-      <c r="H99" s="1">
-        <v>19</v>
-      </c>
-      <c r="I99" s="3">
-        <v>24</v>
-      </c>
-      <c r="K99" s="3"/>
-      <c r="L99" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M99" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N99" s="1">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="O99" s="18">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="P99" s="17">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="Q99" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="R99" s="17">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="S99" s="3"/>
-      <c r="T99" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U99" s="33"/>
-      <c r="V99" s="33"/>
-    </row>
-    <row r="100" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="3">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1">
-        <v>4</v>
-      </c>
-      <c r="D100" s="1">
-        <v>7</v>
-      </c>
-      <c r="E100" s="1">
-        <v>9</v>
-      </c>
-      <c r="F100" s="1">
-        <v>14</v>
-      </c>
-      <c r="G100" s="1">
-        <v>17</v>
-      </c>
-      <c r="H100" s="1">
-        <v>23</v>
-      </c>
-      <c r="I100" s="3">
-        <v>24</v>
-      </c>
-      <c r="K100" s="3"/>
-      <c r="L100" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M100" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N100" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="O100" s="17">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="P100" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Q100" s="19">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="R100" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S100" s="3"/>
-      <c r="T100" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U100" s="33"/>
-      <c r="V100" s="33"/>
-    </row>
-    <row r="101" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1">
-        <v>7</v>
-      </c>
-      <c r="E101" s="1">
-        <v>9</v>
-      </c>
-      <c r="F101" s="1">
-        <v>16</v>
-      </c>
-      <c r="G101" s="1">
-        <v>17</v>
-      </c>
-      <c r="H101" s="1">
-        <v>23</v>
-      </c>
-      <c r="I101" s="3">
-        <v>24</v>
-      </c>
-      <c r="K101" s="3"/>
-      <c r="L101" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M101" s="17">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N101" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="O101" s="1">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="P101" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q101" s="19">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="R101" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S101" s="3"/>
-      <c r="T101" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U101" s="33"/>
-      <c r="V101" s="33"/>
-    </row>
-    <row r="102" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>4</v>
-      </c>
-      <c r="D102" s="1">
-        <v>9</v>
-      </c>
-      <c r="E102" s="1">
-        <v>14</v>
-      </c>
-      <c r="F102" s="1">
-        <v>17</v>
-      </c>
-      <c r="G102" s="1">
-        <v>19</v>
-      </c>
-      <c r="H102" s="1">
-        <v>23</v>
-      </c>
-      <c r="I102" s="3">
-        <v>24</v>
-      </c>
-      <c r="K102" s="3"/>
-      <c r="L102" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M102" s="17">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N102" s="17">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="O102" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="P102" s="18">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Q102" s="1">
+      <c r="Q100" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="R102" s="1">
+      <c r="R100" s="9">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S102" s="3"/>
-      <c r="T102" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U102" s="33"/>
-      <c r="V102" s="33"/>
-    </row>
-    <row r="103" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1">
-        <v>4</v>
-      </c>
-      <c r="D103" s="1">
-        <v>5</v>
-      </c>
-      <c r="E103" s="1">
-        <v>9</v>
-      </c>
-      <c r="F103" s="1">
-        <v>14</v>
-      </c>
-      <c r="G103" s="1">
-        <v>19</v>
-      </c>
-      <c r="H103" s="1">
-        <v>23</v>
-      </c>
-      <c r="I103" s="3">
-        <v>24</v>
-      </c>
-      <c r="K103" s="3"/>
-      <c r="L103" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M103" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N103" s="1">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="O103" s="17">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="P103" s="17">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="Q103" s="1">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="R103" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S103" s="3"/>
-      <c r="T103" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U103" s="33"/>
-      <c r="V103" s="33"/>
-    </row>
-    <row r="104" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="3">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1">
-        <v>5</v>
-      </c>
-      <c r="D104" s="1">
-        <v>9</v>
-      </c>
-      <c r="E104" s="1">
-        <v>14</v>
-      </c>
-      <c r="F104" s="1">
-        <v>16</v>
-      </c>
-      <c r="G104" s="1">
-        <v>19</v>
-      </c>
-      <c r="H104" s="1">
-        <v>23</v>
-      </c>
-      <c r="I104" s="3">
-        <v>24</v>
-      </c>
-      <c r="K104" s="3"/>
-      <c r="L104" s="17">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M104" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N104" s="17">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="O104" s="18">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="P104" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Q104" s="1">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="R104" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S104" s="3"/>
-      <c r="T104" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U104" s="33"/>
-      <c r="V104" s="33"/>
-    </row>
-    <row r="105" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1">
-        <v>5</v>
-      </c>
-      <c r="E105" s="1">
-        <v>9</v>
-      </c>
-      <c r="F105" s="1">
-        <v>16</v>
-      </c>
-      <c r="G105" s="1">
-        <v>19</v>
-      </c>
-      <c r="H105" s="1">
-        <v>23</v>
-      </c>
-      <c r="I105" s="3">
-        <v>24</v>
-      </c>
-      <c r="K105" s="3"/>
-      <c r="L105" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M105" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N105" s="1">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="O105" s="1">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="P105" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Q105" s="1">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="R105" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S105" s="3"/>
-      <c r="T105" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U105" s="33"/>
-      <c r="V105" s="33"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+    </row>
+    <row r="102" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="25"/>
+      <c r="D102" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="107" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="27" t="s">
+      <c r="D107" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="11" t="s">
-        <v>69</v>
+    </row>
+    <row r="108" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="27" t="s">
+      <c r="D109" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F110" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <sortState columnSort="1" ref="V51:AC51">
     <sortCondition ref="V51:AC51"/>
   </sortState>
-  <mergeCells count="95">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B80:Y80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="T100:V100"/>
-    <mergeCell ref="T101:V101"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="K87:S87"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="T89:V89"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="T96:V96"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="T98:V98"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="T90:V90"/>
-    <mergeCell ref="T91:V91"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="T94:V94"/>
+  <mergeCells count="73">
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B54:Y54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B25:Y25"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="P13:Y13"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="N17:Y17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="J50:K50"/>
@@ -7654,48 +7630,35 @@
     <mergeCell ref="J73:K73"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="N17:Y17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="B54:Y54"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="M33:T33"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B25:Y25"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="P13:Y13"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="K82:S82"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B80:Y80"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
   </mergeCells>
+  <conditionalFormatting sqref="L84:R100">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
@@ -7721,72 +7684,84 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Feuil1!B59:I59</xm:f>
-              <xm:sqref>J59</xm:sqref>
+              <xm:f>Feuil1!B35:I35</xm:f>
+              <xm:sqref>J35</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B60:I60</xm:f>
-              <xm:sqref>J60</xm:sqref>
+              <xm:f>Feuil1!B36:I36</xm:f>
+              <xm:sqref>J36</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B61:I61</xm:f>
-              <xm:sqref>J61</xm:sqref>
+              <xm:f>Feuil1!B37:I37</xm:f>
+              <xm:sqref>J37</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B62:I62</xm:f>
-              <xm:sqref>J62</xm:sqref>
+              <xm:f>Feuil1!B38:I38</xm:f>
+              <xm:sqref>J38</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B63:I63</xm:f>
-              <xm:sqref>J63</xm:sqref>
+              <xm:f>Feuil1!B39:I39</xm:f>
+              <xm:sqref>J39</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B64:I64</xm:f>
-              <xm:sqref>J64</xm:sqref>
+              <xm:f>Feuil1!B40:I40</xm:f>
+              <xm:sqref>J40</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B65:I65</xm:f>
-              <xm:sqref>J65</xm:sqref>
+              <xm:f>Feuil1!B41:I41</xm:f>
+              <xm:sqref>J41</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B66:I66</xm:f>
-              <xm:sqref>J66</xm:sqref>
+              <xm:f>Feuil1!B42:I42</xm:f>
+              <xm:sqref>J42</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B67:I67</xm:f>
-              <xm:sqref>J67</xm:sqref>
+              <xm:f>Feuil1!B43:I43</xm:f>
+              <xm:sqref>J43</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B68:I68</xm:f>
-              <xm:sqref>J68</xm:sqref>
+              <xm:f>Feuil1!B44:I44</xm:f>
+              <xm:sqref>J44</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B69:I69</xm:f>
-              <xm:sqref>J69</xm:sqref>
+              <xm:f>Feuil1!B45:I45</xm:f>
+              <xm:sqref>J45</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B70:I70</xm:f>
-              <xm:sqref>J70</xm:sqref>
+              <xm:f>Feuil1!B46:I46</xm:f>
+              <xm:sqref>J46</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B71:I71</xm:f>
-              <xm:sqref>J71</xm:sqref>
+              <xm:f>Feuil1!B47:I47</xm:f>
+              <xm:sqref>J47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B72:I72</xm:f>
-              <xm:sqref>J72</xm:sqref>
+              <xm:f>Feuil1!B48:I48</xm:f>
+              <xm:sqref>J48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B73:I73</xm:f>
-              <xm:sqref>J73</xm:sqref>
+              <xm:f>Feuil1!B49:I49</xm:f>
+              <xm:sqref>J49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B74:I74</xm:f>
-              <xm:sqref>J74</xm:sqref>
+              <xm:f>Feuil1!B50:I50</xm:f>
+              <xm:sqref>J50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B75:I75</xm:f>
-              <xm:sqref>J75</xm:sqref>
+              <xm:f>Feuil1!B51:I51</xm:f>
+              <xm:sqref>J51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B52:I52</xm:f>
+              <xm:sqref>J52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B53:I53</xm:f>
+              <xm:sqref>J53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!B55:I55</xm:f>
+              <xm:sqref>J55</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7893,84 +7868,72 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Feuil1!B35:I35</xm:f>
-              <xm:sqref>J35</xm:sqref>
+              <xm:f>Feuil1!B59:I59</xm:f>
+              <xm:sqref>J59</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B36:I36</xm:f>
-              <xm:sqref>J36</xm:sqref>
+              <xm:f>Feuil1!B60:I60</xm:f>
+              <xm:sqref>J60</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B37:I37</xm:f>
-              <xm:sqref>J37</xm:sqref>
+              <xm:f>Feuil1!B61:I61</xm:f>
+              <xm:sqref>J61</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B38:I38</xm:f>
-              <xm:sqref>J38</xm:sqref>
+              <xm:f>Feuil1!B62:I62</xm:f>
+              <xm:sqref>J62</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B39:I39</xm:f>
-              <xm:sqref>J39</xm:sqref>
+              <xm:f>Feuil1!B63:I63</xm:f>
+              <xm:sqref>J63</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B40:I40</xm:f>
-              <xm:sqref>J40</xm:sqref>
+              <xm:f>Feuil1!B64:I64</xm:f>
+              <xm:sqref>J64</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B41:I41</xm:f>
-              <xm:sqref>J41</xm:sqref>
+              <xm:f>Feuil1!B65:I65</xm:f>
+              <xm:sqref>J65</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B42:I42</xm:f>
-              <xm:sqref>J42</xm:sqref>
+              <xm:f>Feuil1!B66:I66</xm:f>
+              <xm:sqref>J66</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B43:I43</xm:f>
-              <xm:sqref>J43</xm:sqref>
+              <xm:f>Feuil1!B67:I67</xm:f>
+              <xm:sqref>J67</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B44:I44</xm:f>
-              <xm:sqref>J44</xm:sqref>
+              <xm:f>Feuil1!B68:I68</xm:f>
+              <xm:sqref>J68</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B45:I45</xm:f>
-              <xm:sqref>J45</xm:sqref>
+              <xm:f>Feuil1!B69:I69</xm:f>
+              <xm:sqref>J69</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B46:I46</xm:f>
-              <xm:sqref>J46</xm:sqref>
+              <xm:f>Feuil1!B70:I70</xm:f>
+              <xm:sqref>J70</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B47:I47</xm:f>
-              <xm:sqref>J47</xm:sqref>
+              <xm:f>Feuil1!B71:I71</xm:f>
+              <xm:sqref>J71</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B48:I48</xm:f>
-              <xm:sqref>J48</xm:sqref>
+              <xm:f>Feuil1!B72:I72</xm:f>
+              <xm:sqref>J72</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B49:I49</xm:f>
-              <xm:sqref>J49</xm:sqref>
+              <xm:f>Feuil1!B73:I73</xm:f>
+              <xm:sqref>J73</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B50:I50</xm:f>
-              <xm:sqref>J50</xm:sqref>
+              <xm:f>Feuil1!B74:I74</xm:f>
+              <xm:sqref>J74</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Feuil1!B51:I51</xm:f>
-              <xm:sqref>J51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B52:I52</xm:f>
-              <xm:sqref>J52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B53:I53</xm:f>
-              <xm:sqref>J53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Feuil1!B55:I55</xm:f>
-              <xm:sqref>J55</xm:sqref>
+              <xm:f>Feuil1!B75:I75</xm:f>
+              <xm:sqref>J75</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
